--- a/inline_double_plunger_01.xlsx
+++ b/inline_double_plunger_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kutlayhanli/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71281117-46DE-D240-8213-876FA91CF98B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{27095F03-B280-0F4A-8530-DCFD77739E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440"/>
   </bookViews>
@@ -27,31 +27,31 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="131" uniqueCount="82">
   <si>
-    <t>Cv</t>
+    <t>goal_Cv</t>
   </si>
   <si>
     <t>ul</t>
   </si>
   <si>
-    <t>Cd</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>0.00465*sqrt(Cv/Cd)</t>
+    <t>goal_Cd</t>
+  </si>
+  <si>
+    <t>goal_B</t>
+  </si>
+  <si>
+    <t>goal_r</t>
+  </si>
+  <si>
+    <t>0.00465*sqrt(goal_Cv/goal_Cd)</t>
   </si>
   <si>
     <t>m</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>pi * r^2</t>
+    <t>goal_A</t>
+  </si>
+  <si>
+    <t>pi * goal_r^2</t>
   </si>
   <si>
     <t>m*m</t>
@@ -84,7 +84,7 @@
     <t>outlet_orifice_A</t>
   </si>
   <si>
-    <t>A*sqrt(Cd/Cd_cylinder) + main_boss_A</t>
+    <t>goal_A*sqrt(goal_Cd/Cd_cylinder) + main_boss_A</t>
   </si>
   <si>
     <t>outlet_orifice_r</t>

--- a/inline_double_plunger_01.xlsx
+++ b/inline_double_plunger_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kutlayhanli/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27095F03-B280-0F4A-8530-DCFD77739E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D5F7977-C8D9-7D43-8149-219D9B23B62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440"/>
   </bookViews>
@@ -51,7 +51,7 @@
     <t>goal_A</t>
   </si>
   <si>
-    <t>pi * goal_r^2</t>
+    <t>PI * goal_r^2</t>
   </si>
   <si>
     <t>m*m</t>
@@ -78,7 +78,7 @@
     <t>main_boss_A</t>
   </si>
   <si>
-    <t>pi*main_boss_inner_r^2</t>
+    <t>PI*main_boss_inner_r^2</t>
   </si>
   <si>
     <t>outlet_orifice_A</t>
@@ -90,7 +90,7 @@
     <t>outlet_orifice_r</t>
   </si>
   <si>
-    <t>sqrt(outlet_orifice_A/pi)</t>
+    <t>sqrt(outlet_orifice_A/PI)</t>
   </si>
   <si>
     <t>outlet_entrance_A</t>
@@ -102,7 +102,7 @@
     <t>outlet_entrance_r</t>
   </si>
   <si>
-    <t>sqrt(outlet_entrance_A/pi)</t>
+    <t>sqrt(outlet_entrance_A/PI)</t>
   </si>
   <si>
     <t>outlet_boss_t</t>
@@ -120,7 +120,7 @@
     <t>outlet_boss_A</t>
   </si>
   <si>
-    <t>pi*outlet_boss_r^2</t>
+    <t>PI*outlet_boss_r^2</t>
   </si>
   <si>
     <t>main_A</t>
@@ -132,13 +132,13 @@
     <t>main_r</t>
   </si>
   <si>
-    <t>sqrt(main_A/pi)</t>
+    <t>sqrt(main_A/PI)</t>
   </si>
   <si>
     <t>main_high_pressure_A</t>
   </si>
   <si>
-    <t>pi * (main_r^2 - outlet_boss_r^2)</t>
+    <t>PI * (main_r^2 - outlet_boss_r^2)</t>
   </si>
   <si>
     <t>main_down_side_A</t>
@@ -153,7 +153,7 @@
     <t>main_boss_out_r</t>
   </si>
   <si>
-    <t>sqrt(main_low_pressure_A/pi)</t>
+    <t>sqrt(main_low_pressure_A/PI)</t>
   </si>
   <si>
     <t>3*0.001</t>
@@ -171,7 +171,7 @@
     <t>main_movement_range</t>
   </si>
   <si>
-    <t>outlet_entrance_A / (2 * pi * outlet_entrance_r)</t>
+    <t>outlet_entrance_A / (2 * PI * outlet_entrance_r)</t>
   </si>
   <si>
     <t>retainer_main_groove_depth</t>
@@ -198,34 +198,34 @@
     <t>retainer_main_boss_groove_r</t>
   </si>
   <si>
-    <t>pilot_seal_r</t>
+    <t>PIlot_seal_r</t>
   </si>
   <si>
     <t>main_boss_inner_r * 0.5</t>
   </si>
   <si>
-    <t>pilot_seal_t</t>
-  </si>
-  <si>
-    <t>pilot_stem_r</t>
-  </si>
-  <si>
-    <t>pilot_seal_r * 0.25</t>
-  </si>
-  <si>
-    <t>pilot_steam_A</t>
-  </si>
-  <si>
-    <t>pilot_stem_r^2 * pi</t>
-  </si>
-  <si>
-    <t>pilot_seal_A</t>
-  </si>
-  <si>
-    <t>pilot_seal_r^2 * pi</t>
-  </si>
-  <si>
-    <t>pilot_movement_range</t>
+    <t>PIlot_seal_t</t>
+  </si>
+  <si>
+    <t>PIlot_stem_r</t>
+  </si>
+  <si>
+    <t>PIlot_seal_r * 0.25</t>
+  </si>
+  <si>
+    <t>PIlot_steam_A</t>
+  </si>
+  <si>
+    <t>PIlot_stem_r^2 * PI</t>
+  </si>
+  <si>
+    <t>PIlot_seal_A</t>
+  </si>
+  <si>
+    <t>PIlot_seal_r^2 * PI</t>
+  </si>
+  <si>
+    <t>PIlot_movement_range</t>
   </si>
   <si>
     <t>20*0.001</t>
@@ -234,7 +234,7 @@
     <t>main_boss_h</t>
   </si>
   <si>
-    <t>pilot_movement_range * 1.05</t>
+    <t>PIlot_movement_range * 1.05</t>
   </si>
   <si>
     <t>retainer_main_boss_groove_depth</t>
@@ -270,7 +270,7 @@
     <t>inlet_outlet_distance</t>
   </si>
   <si>
-    <t>outlet_entrance_A / (2 * pi * retainer_main_boss_groove_r)</t>
+    <t>outlet_entrance_A / (2 * PI * retainer_main_boss_groove_r)</t>
   </si>
 </sst>
 </file>

--- a/inline_double_plunger_01.xlsx
+++ b/inline_double_plunger_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kutlayhanli/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D5F7977-C8D9-7D43-8149-219D9B23B62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C74652E-E122-E749-8681-22021E6F6E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="131" uniqueCount="82">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="131" uniqueCount="84">
   <si>
     <t>goal_Cv</t>
   </si>
@@ -66,97 +66,103 @@
     <t>2*0.001</t>
   </si>
   <si>
+    <t>main_tower_t</t>
+  </si>
+  <si>
+    <t>main_tower_r</t>
+  </si>
+  <si>
+    <t>main_orifice_r + main_tower_t</t>
+  </si>
+  <si>
+    <t>main_tower_A</t>
+  </si>
+  <si>
+    <t>PI*main_tower_r^2</t>
+  </si>
+  <si>
+    <t>outlet_orifice_A</t>
+  </si>
+  <si>
+    <t>goal_A*sqrt(goal_Cd/Cd_cylinder) + main_tower_A</t>
+  </si>
+  <si>
+    <t>outlet_orifice_r</t>
+  </si>
+  <si>
+    <t>sqrt(outlet_orifice_A/PI)</t>
+  </si>
+  <si>
+    <t>outlet_entrance_A</t>
+  </si>
+  <si>
+    <t>outlet_orifice_A * 4</t>
+  </si>
+  <si>
+    <t>outlet_entrance_r</t>
+  </si>
+  <si>
+    <t>sqrt(outlet_entrance_A/PI)</t>
+  </si>
+  <si>
+    <t>outlet_boss_t</t>
+  </si>
+  <si>
+    <t>5*0.001</t>
+  </si>
+  <si>
+    <t>outlet_boss_r</t>
+  </si>
+  <si>
+    <t>outlet_entrance_r + outlet_boss_t</t>
+  </si>
+  <si>
+    <t>outlet_boss_A</t>
+  </si>
+  <si>
+    <t>PI*outlet_boss_r^2</t>
+  </si>
+  <si>
+    <t>main_A</t>
+  </si>
+  <si>
+    <t>outlet_boss_A + outlet_entrance_A</t>
+  </si>
+  <si>
+    <t>main_r</t>
+  </si>
+  <si>
+    <t>sqrt(main_A/PI)</t>
+  </si>
+  <si>
+    <t>main_high_pressure_A</t>
+  </si>
+  <si>
+    <t>PI * (main_r^2 - outlet_boss_r^2)</t>
+  </si>
+  <si>
+    <t>main_down_side_A</t>
+  </si>
+  <si>
+    <t>main_low_pressure_A</t>
+  </si>
+  <si>
+    <t>(main_high_pressure_A + main_down_side_A)*1.00</t>
+  </si>
+  <si>
+    <t>main_boss_out_r</t>
+  </si>
+  <si>
+    <t>sqrt(main_low_pressure_A/PI)</t>
+  </si>
+  <si>
     <t>main_boss_t</t>
   </si>
   <si>
+    <t>3*0.001</t>
+  </si>
+  <si>
     <t>main_boss_inner_r</t>
-  </si>
-  <si>
-    <t>main_orifice_r + main_boss_t</t>
-  </si>
-  <si>
-    <t>main_boss_A</t>
-  </si>
-  <si>
-    <t>PI*main_boss_inner_r^2</t>
-  </si>
-  <si>
-    <t>outlet_orifice_A</t>
-  </si>
-  <si>
-    <t>goal_A*sqrt(goal_Cd/Cd_cylinder) + main_boss_A</t>
-  </si>
-  <si>
-    <t>outlet_orifice_r</t>
-  </si>
-  <si>
-    <t>sqrt(outlet_orifice_A/PI)</t>
-  </si>
-  <si>
-    <t>outlet_entrance_A</t>
-  </si>
-  <si>
-    <t>outlet_orifice_A * 4</t>
-  </si>
-  <si>
-    <t>outlet_entrance_r</t>
-  </si>
-  <si>
-    <t>sqrt(outlet_entrance_A/PI)</t>
-  </si>
-  <si>
-    <t>outlet_boss_t</t>
-  </si>
-  <si>
-    <t>5*0.001</t>
-  </si>
-  <si>
-    <t>outlet_boss_r</t>
-  </si>
-  <si>
-    <t>outlet_entrance_r + outlet_boss_t</t>
-  </si>
-  <si>
-    <t>outlet_boss_A</t>
-  </si>
-  <si>
-    <t>PI*outlet_boss_r^2</t>
-  </si>
-  <si>
-    <t>main_A</t>
-  </si>
-  <si>
-    <t>outlet_boss_A + outlet_entrance_A</t>
-  </si>
-  <si>
-    <t>main_r</t>
-  </si>
-  <si>
-    <t>sqrt(main_A/PI)</t>
-  </si>
-  <si>
-    <t>main_high_pressure_A</t>
-  </si>
-  <si>
-    <t>PI * (main_r^2 - outlet_boss_r^2)</t>
-  </si>
-  <si>
-    <t>main_down_side_A</t>
-  </si>
-  <si>
-    <t>main_low_pressure_A</t>
-  </si>
-  <si>
-    <t>(main_high_pressure_A + main_down_side_A)*1.00</t>
-  </si>
-  <si>
-    <t>main_boss_out_r</t>
-  </si>
-  <si>
-    <t>sqrt(main_low_pressure_A/PI)</t>
-  </si>
-  <si>
-    <t>3*0.001</t>
   </si>
   <si>
     <t>main_boss_out_r - main_boss_t</t>
@@ -1372,10 +1378,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
@@ -1383,10 +1389,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
         <v>6</v>
@@ -1394,10 +1400,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
@@ -1405,10 +1411,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
@@ -1416,10 +1422,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
@@ -1427,7 +1433,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s">
         <v>34</v>
@@ -1438,10 +1444,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
@@ -1449,10 +1455,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
@@ -1460,7 +1466,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B32" t="s">
         <v>41</v>
@@ -1471,10 +1477,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C33" t="s">
         <v>6</v>
@@ -1482,10 +1488,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C34" t="s">
         <v>6</v>
@@ -1493,10 +1499,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C35" t="s">
         <v>6</v>
@@ -1504,10 +1510,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C36" t="s">
         <v>9</v>
@@ -1515,10 +1521,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B37" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C37" t="s">
         <v>9</v>
@@ -1526,10 +1532,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B38" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C38" t="s">
         <v>6</v>
@@ -1537,10 +1543,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B39" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C39" t="s">
         <v>6</v>
@@ -1548,10 +1554,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B40" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C40" t="s">
         <v>6</v>
@@ -1559,10 +1565,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C41" t="s">
         <v>6</v>
@@ -1570,10 +1576,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B42" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C42" t="s">
         <v>6</v>
@@ -1581,10 +1587,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B43" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C43" t="s">
         <v>6</v>
@@ -1592,10 +1598,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B44" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C44" t="s">
         <v>6</v>
@@ -1603,10 +1609,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B45" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C45" t="s">
         <v>1</v>

--- a/inline_double_plunger_01.xlsx
+++ b/inline_double_plunger_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kutlayhanli/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C74652E-E122-E749-8681-22021E6F6E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{39B64DD4-B4BC-C64B-8BB2-9C1982D30D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="131" uniqueCount="84">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="149" uniqueCount="93">
   <si>
     <t>goal_Cv</t>
   </si>
@@ -81,6 +81,12 @@
     <t>PI*main_tower_r^2</t>
   </si>
   <si>
+    <t>main_tower_h</t>
+  </si>
+  <si>
+    <t>30*0.001</t>
+  </si>
+  <si>
     <t>outlet_orifice_A</t>
   </si>
   <si>
@@ -93,6 +99,12 @@
     <t>sqrt(outlet_orifice_A/PI)</t>
   </si>
   <si>
+    <t>outlet_orifice_h</t>
+  </si>
+  <si>
+    <t>10*0.001</t>
+  </si>
+  <si>
     <t>outlet_entrance_A</t>
   </si>
   <si>
@@ -105,6 +117,9 @@
     <t>sqrt(outlet_entrance_A/PI)</t>
   </si>
   <si>
+    <t>outlet_entrance_h</t>
+  </si>
+  <si>
     <t>outlet_boss_t</t>
   </si>
   <si>
@@ -123,6 +138,15 @@
     <t>PI*outlet_boss_r^2</t>
   </si>
   <si>
+    <t>outlet_boss_h</t>
+  </si>
+  <si>
+    <t>outlet_orifice_h + outlet_entrance_h</t>
+  </si>
+  <si>
+    <t>outlet_t</t>
+  </si>
+  <si>
     <t>main_A</t>
   </si>
   <si>
@@ -171,9 +195,6 @@
     <t>main_t</t>
   </si>
   <si>
-    <t>10*0.001</t>
-  </si>
-  <si>
     <t>main_movement_range</t>
   </si>
   <si>
@@ -246,7 +267,7 @@
     <t>retainer_main_boss_groove_depth</t>
   </si>
   <si>
-    <t>main_boss_h + main_movement_range + 2*0.001</t>
+    <t>main_movement_range + 2*0.001</t>
   </si>
   <si>
     <t>retainer_total_h</t>
@@ -277,6 +298,12 @@
   </si>
   <si>
     <t>outlet_entrance_A / (2 * PI * retainer_main_boss_groove_r)</t>
+  </si>
+  <si>
+    <t>inlet_h</t>
+  </si>
+  <si>
+    <t>2 * inlet_outlet_distance + retainer_total_h + inlet_t</t>
   </si>
 </sst>
 </file>
@@ -1117,7 +1144,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1241,7 +1268,7 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1252,7 +1279,7 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1263,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1285,7 +1312,7 @@
         <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1304,29 +1331,29 @@
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
         <v>32</v>
       </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
         <v>34</v>
-      </c>
-      <c r="B19" t="s">
-        <v>35</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
@@ -1334,10 +1361,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
         <v>36</v>
-      </c>
-      <c r="B20" t="s">
-        <v>37</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
@@ -1345,13 +1372,13 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
         <v>38</v>
       </c>
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1359,29 +1386,29 @@
         <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
         <v>41</v>
       </c>
-      <c r="B23" t="s">
-        <v>42</v>
-      </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
         <v>43</v>
-      </c>
-      <c r="B24" t="s">
-        <v>44</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
@@ -1389,43 +1416,43 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" t="s">
         <v>45</v>
       </c>
-      <c r="B25" t="s">
-        <v>46</v>
-      </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
@@ -1433,10 +1460,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C29" t="s">
         <v>6</v>
@@ -1444,10 +1471,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" t="s">
         <v>54</v>
-      </c>
-      <c r="B30" t="s">
-        <v>55</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
@@ -1455,10 +1482,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
@@ -1466,10 +1493,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C32" t="s">
         <v>6</v>
@@ -1477,10 +1504,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" t="s">
         <v>59</v>
-      </c>
-      <c r="B33" t="s">
-        <v>60</v>
       </c>
       <c r="C33" t="s">
         <v>6</v>
@@ -1488,10 +1515,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
         <v>6</v>
@@ -1499,10 +1526,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" t="s">
         <v>62</v>
-      </c>
-      <c r="B35" t="s">
-        <v>63</v>
       </c>
       <c r="C35" t="s">
         <v>6</v>
@@ -1510,32 +1537,32 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" t="s">
         <v>64</v>
       </c>
-      <c r="B36" t="s">
-        <v>65</v>
-      </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B37" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B38" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C38" t="s">
         <v>6</v>
@@ -1543,10 +1570,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C39" t="s">
         <v>6</v>
@@ -1554,10 +1581,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B40" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C40" t="s">
         <v>6</v>
@@ -1565,32 +1592,32 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B41" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B42" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B43" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C43" t="s">
         <v>6</v>
@@ -1598,10 +1625,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B44" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C44" t="s">
         <v>6</v>
@@ -1609,13 +1636,79 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" t="s">
         <v>82</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>83</v>
       </c>
-      <c r="C45" t="s">
-        <v>1</v>
+      <c r="B47" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>85</v>
+      </c>
+      <c r="B48" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>87</v>
+      </c>
+      <c r="B49" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>91</v>
+      </c>
+      <c r="B51" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
